--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120010.7304040759</v>
+        <v>21393097.25607605</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120010.7304040759</v>
+        <v>21393097.25607605</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56427.78622879377</v>
+        <v>7137762.818359871</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56427.78622879377</v>
+        <v>7137762.818359871</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493908977.470779</v>
+        <v>52581156.25098091</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11589.1842499938</v>
+        <v>1147041.558680536</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22680.26472517534</v>
+        <v>2222392.169001775</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33784.12935559535</v>
+        <v>3297742.779323013</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45533.89182010519</v>
+        <v>4265697.79052461</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56675.24474797778</v>
+        <v>5349088.517247174</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67753.57992952292</v>
+        <v>6431827.849178229</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78790.71392092567</v>
+        <v>7514183.281396508</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89791.50890036992</v>
+        <v>8596538.713614786</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101651.163053955</v>
+        <v>9559675.668714557</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112570.4558010916</v>
+        <v>10664081.85472531</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123266.8553112316</v>
+        <v>11813107.73332602</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133792.6762546893</v>
+        <v>12958822.15724791</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144368.2381644796</v>
+        <v>14104536.58116981</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156237.8268423453</v>
+        <v>15048055.31814903</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170660.4416697029</v>
+        <v>15698720.67515516</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
